--- a/final_data_pipeline/output/312140_elec_options.xlsx
+++ b/final_data_pipeline/output/312140_elec_options.xlsx
@@ -834,7 +834,7 @@
         <v>82</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE2">
         <v>8000</v>
@@ -929,7 +929,7 @@
         <v>82</v>
       </c>
       <c r="AD3">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE3">
         <v>8000</v>
@@ -1024,7 +1024,7 @@
         <v>82</v>
       </c>
       <c r="AD4">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE4">
         <v>8000</v>
@@ -1122,7 +1122,7 @@
         <v>82</v>
       </c>
       <c r="AD5">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE5">
         <v>8000</v>
@@ -1217,7 +1217,7 @@
         <v>82</v>
       </c>
       <c r="AD6">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE6">
         <v>8000</v>
@@ -1312,7 +1312,7 @@
         <v>82</v>
       </c>
       <c r="AD7">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE7">
         <v>8000</v>
@@ -2553,7 +2553,7 @@
         <v>82</v>
       </c>
       <c r="AD20">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE20">
         <v>8000</v>
@@ -2648,7 +2648,7 @@
         <v>82</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE21">
         <v>8000</v>
@@ -2743,7 +2743,7 @@
         <v>82</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE22">
         <v>8000</v>
@@ -2838,7 +2838,7 @@
         <v>82</v>
       </c>
       <c r="AD23">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE23">
         <v>8000</v>
@@ -2936,7 +2936,7 @@
         <v>82</v>
       </c>
       <c r="AD24">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE24">
         <v>8000</v>
@@ -3031,7 +3031,7 @@
         <v>82</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE25">
         <v>8000</v>
@@ -3129,7 +3129,7 @@
         <v>82</v>
       </c>
       <c r="AD26">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE26">
         <v>8000</v>
@@ -3224,7 +3224,7 @@
         <v>82</v>
       </c>
       <c r="AD27">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE27">
         <v>8000</v>
@@ -3319,7 +3319,7 @@
         <v>82</v>
       </c>
       <c r="AD28">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE28">
         <v>8000</v>
@@ -3414,7 +3414,7 @@
         <v>82</v>
       </c>
       <c r="AD29">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE29">
         <v>8000</v>
@@ -3509,7 +3509,7 @@
         <v>82</v>
       </c>
       <c r="AD30">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE30">
         <v>8000</v>
@@ -3604,7 +3604,7 @@
         <v>82</v>
       </c>
       <c r="AD31">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE31">
         <v>8000</v>
@@ -3699,7 +3699,7 @@
         <v>82</v>
       </c>
       <c r="AD32">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE32">
         <v>8000</v>
@@ -3794,7 +3794,7 @@
         <v>82</v>
       </c>
       <c r="AD33">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE33">
         <v>8000</v>
@@ -3889,7 +3889,7 @@
         <v>82</v>
       </c>
       <c r="AD34">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE34">
         <v>8000</v>
@@ -3984,7 +3984,7 @@
         <v>82</v>
       </c>
       <c r="AD35">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE35">
         <v>8000</v>
@@ -4082,7 +4082,7 @@
         <v>82</v>
       </c>
       <c r="AD36">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE36">
         <v>8000</v>
@@ -4177,7 +4177,7 @@
         <v>82</v>
       </c>
       <c r="AD37">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE37">
         <v>8000</v>
@@ -4845,7 +4845,7 @@
         <v>82</v>
       </c>
       <c r="AD44">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE44">
         <v>8000</v>
@@ -4946,7 +4946,7 @@
         <v>82</v>
       </c>
       <c r="AD45">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE45">
         <v>8000</v>
@@ -5047,7 +5047,7 @@
         <v>82</v>
       </c>
       <c r="AD46">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE46">
         <v>8000</v>
@@ -5142,7 +5142,7 @@
         <v>82</v>
       </c>
       <c r="AD47">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE47">
         <v>8000</v>
@@ -5237,7 +5237,7 @@
         <v>82</v>
       </c>
       <c r="AD48">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE48">
         <v>8000</v>
@@ -5332,7 +5332,7 @@
         <v>82</v>
       </c>
       <c r="AD49">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE49">
         <v>8000</v>
@@ -5427,7 +5427,7 @@
         <v>82</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE50">
         <v>8000</v>
@@ -5522,7 +5522,7 @@
         <v>82</v>
       </c>
       <c r="AD51">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE51">
         <v>8000</v>
@@ -5617,7 +5617,7 @@
         <v>82</v>
       </c>
       <c r="AD52">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE52">
         <v>8000</v>
@@ -5712,7 +5712,7 @@
         <v>82</v>
       </c>
       <c r="AD53">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE53">
         <v>8000</v>
@@ -5807,7 +5807,7 @@
         <v>82</v>
       </c>
       <c r="AD54">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE54">
         <v>8000</v>
@@ -5902,7 +5902,7 @@
         <v>82</v>
       </c>
       <c r="AD55">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE55">
         <v>8000</v>
@@ -5997,7 +5997,7 @@
         <v>82</v>
       </c>
       <c r="AD56">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE56">
         <v>8000</v>
@@ -6092,7 +6092,7 @@
         <v>82</v>
       </c>
       <c r="AD57">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE57">
         <v>8000</v>
@@ -6187,7 +6187,7 @@
         <v>82</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE58">
         <v>8000</v>
@@ -6282,7 +6282,7 @@
         <v>82</v>
       </c>
       <c r="AD59">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE59">
         <v>8000</v>
@@ -6377,7 +6377,7 @@
         <v>82</v>
       </c>
       <c r="AD60">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AE60">
         <v>8000</v>
@@ -7621,7 +7621,7 @@
         <v>82</v>
       </c>
       <c r="AD73">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE73">
         <v>8000</v>
@@ -7719,7 +7719,7 @@
         <v>82</v>
       </c>
       <c r="AD74">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE74">
         <v>8000</v>
@@ -7817,7 +7817,7 @@
         <v>82</v>
       </c>
       <c r="AD75">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE75">
         <v>8000</v>
@@ -7912,7 +7912,7 @@
         <v>82</v>
       </c>
       <c r="AD76">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE76">
         <v>8000</v>
@@ -8007,7 +8007,7 @@
         <v>82</v>
       </c>
       <c r="AD77">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE77">
         <v>8000</v>
@@ -8102,7 +8102,7 @@
         <v>82</v>
       </c>
       <c r="AD78">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE78">
         <v>8000</v>
@@ -8197,7 +8197,7 @@
         <v>82</v>
       </c>
       <c r="AD79">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE79">
         <v>8000</v>
@@ -8292,7 +8292,7 @@
         <v>82</v>
       </c>
       <c r="AD80">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE80">
         <v>8000</v>
@@ -8387,7 +8387,7 @@
         <v>82</v>
       </c>
       <c r="AD81">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE81">
         <v>8000</v>
@@ -8482,7 +8482,7 @@
         <v>82</v>
       </c>
       <c r="AD82">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE82">
         <v>8000</v>
@@ -8577,7 +8577,7 @@
         <v>82</v>
       </c>
       <c r="AD83">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE83">
         <v>8000</v>
@@ -8672,7 +8672,7 @@
         <v>82</v>
       </c>
       <c r="AD84">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE84">
         <v>8000</v>
@@ -8767,7 +8767,7 @@
         <v>82</v>
       </c>
       <c r="AD85">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE85">
         <v>8000</v>
@@ -8862,7 +8862,7 @@
         <v>82</v>
       </c>
       <c r="AD86">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE86">
         <v>8000</v>
@@ -8957,7 +8957,7 @@
         <v>82</v>
       </c>
       <c r="AD87">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE87">
         <v>8000</v>
@@ -9052,7 +9052,7 @@
         <v>82</v>
       </c>
       <c r="AD88">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE88">
         <v>8000</v>
@@ -9147,7 +9147,7 @@
         <v>82</v>
       </c>
       <c r="AD89">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE89">
         <v>8000</v>
@@ -9242,7 +9242,7 @@
         <v>82</v>
       </c>
       <c r="AD90">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="AE90">
         <v>8000</v>
@@ -9337,7 +9337,7 @@
         <v>82</v>
       </c>
       <c r="AD91">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE91">
         <v>8000</v>
@@ -9432,7 +9432,7 @@
         <v>82</v>
       </c>
       <c r="AD92">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE92">
         <v>8000</v>
@@ -9527,7 +9527,7 @@
         <v>82</v>
       </c>
       <c r="AD93">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE93">
         <v>8000</v>
@@ -9622,7 +9622,7 @@
         <v>82</v>
       </c>
       <c r="AD94">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE94">
         <v>8000</v>
@@ -9720,7 +9720,7 @@
         <v>82</v>
       </c>
       <c r="AD95">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE95">
         <v>8000</v>
@@ -9815,7 +9815,7 @@
         <v>82</v>
       </c>
       <c r="AD96">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE96">
         <v>8000</v>
@@ -9910,7 +9910,7 @@
         <v>82</v>
       </c>
       <c r="AD97">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE97">
         <v>8000</v>
@@ -10005,7 +10005,7 @@
         <v>82</v>
       </c>
       <c r="AD98">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE98">
         <v>8000</v>
@@ -10103,7 +10103,7 @@
         <v>82</v>
       </c>
       <c r="AD99">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE99">
         <v>8000</v>
@@ -10198,7 +10198,7 @@
         <v>82</v>
       </c>
       <c r="AD100">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE100">
         <v>8000</v>
@@ -10293,7 +10293,7 @@
         <v>82</v>
       </c>
       <c r="AD101">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE101">
         <v>8000</v>
@@ -10388,7 +10388,7 @@
         <v>82</v>
       </c>
       <c r="AD102">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE102">
         <v>8000</v>
@@ -10483,7 +10483,7 @@
         <v>82</v>
       </c>
       <c r="AD103">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE103">
         <v>8000</v>
@@ -10578,7 +10578,7 @@
         <v>82</v>
       </c>
       <c r="AD104">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE104">
         <v>8000</v>
@@ -10673,7 +10673,7 @@
         <v>82</v>
       </c>
       <c r="AD105">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE105">
         <v>8000</v>
@@ -10768,7 +10768,7 @@
         <v>82</v>
       </c>
       <c r="AD106">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE106">
         <v>8000</v>
@@ -10863,7 +10863,7 @@
         <v>82</v>
       </c>
       <c r="AD107">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE107">
         <v>8000</v>
@@ -10958,7 +10958,7 @@
         <v>82</v>
       </c>
       <c r="AD108">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE108">
         <v>8000</v>
@@ -11053,7 +11053,7 @@
         <v>82</v>
       </c>
       <c r="AD109">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE109">
         <v>8000</v>
@@ -11148,7 +11148,7 @@
         <v>82</v>
       </c>
       <c r="AD110">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE110">
         <v>8000</v>
@@ -11246,7 +11246,7 @@
         <v>82</v>
       </c>
       <c r="AD111">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE111">
         <v>8000</v>
@@ -11344,7 +11344,7 @@
         <v>82</v>
       </c>
       <c r="AD112">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE112">
         <v>8000</v>
@@ -11439,7 +11439,7 @@
         <v>82</v>
       </c>
       <c r="AD113">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE113">
         <v>8000</v>
@@ -11534,7 +11534,7 @@
         <v>82</v>
       </c>
       <c r="AD114">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="AE114">
         <v>8000</v>
